--- a/code/ConfigTool/CS.xlsx
+++ b/code/ConfigTool/CS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>CS</t>
   </si>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -433,6 +437,17 @@
       </c>
       <c r="C3">
         <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
